--- a/nucleo/nucleo.xlsx
+++ b/nucleo/nucleo.xlsx
@@ -20,7 +20,7 @@
     <t>Exportado:</t>
   </si>
   <si>
-    <t>sáb. 03/05/2025 11:09</t>
+    <t>sáb. 03/05/2025 19:26</t>
   </si>
   <si>
     <t>Fecha</t>

--- a/nucleo/nucleo.xlsx
+++ b/nucleo/nucleo.xlsx
@@ -20,7 +20,7 @@
     <t>Exportado:</t>
   </si>
   <si>
-    <t>sáb. 03/05/2025 19:26</t>
+    <t>mié. 07/05/2025 19:09</t>
   </si>
   <si>
     <t>Fecha</t>
@@ -104,8 +104,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Datos" displayName="Datos" ref="A5:D38" headerRowCount="1" totalsRowCount="1">
-  <autoFilter ref="A5:D37"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Datos" displayName="Datos" ref="A5:D42" headerRowCount="1" totalsRowCount="1">
+  <autoFilter ref="A5:D41"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Fecha"/>
     <tableColumn id="2" name="Cantidad de pedidos" totalsRowFunction="sum"/>
@@ -118,7 +118,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -620,14 +620,70 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="7"/>
-      <c r="B38" s="4">
+      <c r="A38" s="5">
+        <v>45780</v>
+      </c>
+      <c r="B38" s="0">
+        <v>19</v>
+      </c>
+      <c r="C38" s="0">
+        <v>418500</v>
+      </c>
+      <c r="D38" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="5">
+        <v>45781</v>
+      </c>
+      <c r="B39" s="0">
+        <v>12</v>
+      </c>
+      <c r="C39" s="0">
+        <v>201200</v>
+      </c>
+      <c r="D39" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="5">
+        <v>45783</v>
+      </c>
+      <c r="B40" s="0">
+        <v>14</v>
+      </c>
+      <c r="C40" s="0">
+        <v>275800</v>
+      </c>
+      <c r="D40" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="5">
+        <v>45784</v>
+      </c>
+      <c r="B41" s="0">
+        <v>3</v>
+      </c>
+      <c r="C41" s="0">
+        <v>55500</v>
+      </c>
+      <c r="D41" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="7"/>
+      <c r="B42" s="4">
         <f>SUBTOTAL(109,Datos[Cantidad de pedidos])</f>
       </c>
-      <c r="C38" s="4">
+      <c r="C42" s="4">
         <f>SUBTOTAL(109,Datos[Total $])</f>
       </c>
-      <c r="D38" s="4">
+      <c r="D42" s="4">
         <f>SUBTOTAL(109,Datos[Cantidad de productos])</f>
       </c>
     </row>

--- a/nucleo/nucleo.xlsx
+++ b/nucleo/nucleo.xlsx
@@ -20,7 +20,7 @@
     <t>Exportado:</t>
   </si>
   <si>
-    <t>mié. 07/05/2025 19:09</t>
+    <t>lun. 26/05/2025 21:32</t>
   </si>
   <si>
     <t>Fecha</t>
@@ -104,8 +104,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Datos" displayName="Datos" ref="A5:D42" headerRowCount="1" totalsRowCount="1">
-  <autoFilter ref="A5:D41"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Datos" displayName="Datos" ref="A5:D61" headerRowCount="1" totalsRowCount="1">
+  <autoFilter ref="A5:D60"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Fecha"/>
     <tableColumn id="2" name="Cantidad de pedidos" totalsRowFunction="sum"/>
@@ -118,7 +118,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -666,24 +666,290 @@
         <v>45784</v>
       </c>
       <c r="B41" s="0">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C41" s="0">
-        <v>55500</v>
+        <v>121000</v>
       </c>
       <c r="D41" s="0">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="7"/>
-      <c r="B42" s="4">
+      <c r="A42" s="5">
+        <v>45785</v>
+      </c>
+      <c r="B42" s="0">
+        <v>10</v>
+      </c>
+      <c r="C42" s="0">
+        <v>155000</v>
+      </c>
+      <c r="D42" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="5">
+        <v>45786</v>
+      </c>
+      <c r="B43" s="0">
+        <v>17</v>
+      </c>
+      <c r="C43" s="0">
+        <v>300100</v>
+      </c>
+      <c r="D43" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="5">
+        <v>45787</v>
+      </c>
+      <c r="B44" s="0">
+        <v>31</v>
+      </c>
+      <c r="C44" s="0">
+        <v>486700</v>
+      </c>
+      <c r="D44" s="0">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="5">
+        <v>45788</v>
+      </c>
+      <c r="B45" s="0">
+        <v>14</v>
+      </c>
+      <c r="C45" s="0">
+        <v>223800</v>
+      </c>
+      <c r="D45" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="5">
+        <v>45789</v>
+      </c>
+      <c r="B46" s="0">
+        <v>8</v>
+      </c>
+      <c r="C46" s="0">
+        <v>104342.2</v>
+      </c>
+      <c r="D46" s="0">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="5">
+        <v>45790</v>
+      </c>
+      <c r="B47" s="0">
+        <v>67</v>
+      </c>
+      <c r="C47" s="0">
+        <v>376425</v>
+      </c>
+      <c r="D47" s="0">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="5">
+        <v>45791</v>
+      </c>
+      <c r="B48" s="0">
+        <v>74</v>
+      </c>
+      <c r="C48" s="0">
+        <v>318930</v>
+      </c>
+      <c r="D48" s="0">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="5">
+        <v>45792</v>
+      </c>
+      <c r="B49" s="0">
+        <v>74</v>
+      </c>
+      <c r="C49" s="0">
+        <v>308463</v>
+      </c>
+      <c r="D49" s="0">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="5">
+        <v>45793</v>
+      </c>
+      <c r="B50" s="0">
+        <v>72</v>
+      </c>
+      <c r="C50" s="0">
+        <v>536582.5</v>
+      </c>
+      <c r="D50" s="0">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="5">
+        <v>45794</v>
+      </c>
+      <c r="B51" s="0">
+        <v>75</v>
+      </c>
+      <c r="C51" s="0">
+        <v>459845</v>
+      </c>
+      <c r="D51" s="0">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="5">
+        <v>45795</v>
+      </c>
+      <c r="B52" s="0">
+        <v>42</v>
+      </c>
+      <c r="C52" s="0">
+        <v>357246</v>
+      </c>
+      <c r="D52" s="0">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="5">
+        <v>45796</v>
+      </c>
+      <c r="B53" s="0">
+        <v>71</v>
+      </c>
+      <c r="C53" s="0">
+        <v>184170</v>
+      </c>
+      <c r="D53" s="0">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="5">
+        <v>45797</v>
+      </c>
+      <c r="B54" s="0">
+        <v>90</v>
+      </c>
+      <c r="C54" s="0">
+        <v>364345.8</v>
+      </c>
+      <c r="D54" s="0">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="5">
+        <v>45798</v>
+      </c>
+      <c r="B55" s="0">
+        <v>71</v>
+      </c>
+      <c r="C55" s="0">
+        <v>412825</v>
+      </c>
+      <c r="D55" s="0">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="5">
+        <v>45799</v>
+      </c>
+      <c r="B56" s="0">
+        <v>73</v>
+      </c>
+      <c r="C56" s="0">
+        <v>344173</v>
+      </c>
+      <c r="D56" s="0">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="5">
+        <v>45800</v>
+      </c>
+      <c r="B57" s="0">
+        <v>83</v>
+      </c>
+      <c r="C57" s="0">
+        <v>413234</v>
+      </c>
+      <c r="D57" s="0">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="5">
+        <v>45801</v>
+      </c>
+      <c r="B58" s="0">
+        <v>83</v>
+      </c>
+      <c r="C58" s="0">
+        <v>471428</v>
+      </c>
+      <c r="D58" s="0">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="5">
+        <v>45802</v>
+      </c>
+      <c r="B59" s="0">
+        <v>55</v>
+      </c>
+      <c r="C59" s="0">
+        <v>385745</v>
+      </c>
+      <c r="D59" s="0">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="5">
+        <v>45803</v>
+      </c>
+      <c r="B60" s="0">
+        <v>62</v>
+      </c>
+      <c r="C60" s="0">
+        <v>162213</v>
+      </c>
+      <c r="D60" s="0">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="7"/>
+      <c r="B61" s="4">
         <f>SUBTOTAL(109,Datos[Cantidad de pedidos])</f>
       </c>
-      <c r="C42" s="4">
+      <c r="C61" s="4">
         <f>SUBTOTAL(109,Datos[Total $])</f>
       </c>
-      <c r="D42" s="4">
+      <c r="D61" s="4">
         <f>SUBTOTAL(109,Datos[Cantidad de productos])</f>
       </c>
     </row>
